--- a/data/case1/19/P_device_1.xlsx
+++ b/data/case1/19/P_device_1.xlsx
@@ -53,7 +53,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="true"/>
@@ -62,34 +62,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.050111641385069343</v>
+        <v>-0.040714492914588667</v>
       </c>
       <c r="B1" s="0">
-        <v>-0.05011164224771425</v>
+        <v>0.040714491002168091</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.092312269105868552</v>
+        <v>0.060572896919914104</v>
       </c>
       <c r="B2" s="0">
-        <v>0.092312268302527631</v>
+        <v>-0.060572898682522539</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.022521561689995518</v>
+        <v>0.021578416827811388</v>
       </c>
       <c r="B3" s="0">
-        <v>0.022521560871199796</v>
+        <v>-0.021578418624398493</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.013225667811378966</v>
+        <v>0.033738693456479646</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.013225668726719712</v>
+        <v>-0.033738695254919397</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>-0.0066223264963496242</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0.0066223244945752789</v>
       </c>
     </row>
   </sheetData>
